--- a/xlsx/competition.xlsx
+++ b/xlsx/competition.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BDC4B9-A033-4CB0-AA77-4E96710FD6BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F0ABAB-D406-4131-90AB-78308731F9AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="48225" windowHeight="28335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
